--- a/TR_SalesOrderConfirmationExcel.xlsx
+++ b/TR_SalesOrderConfirmationExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimoRovers\Documents\AL\AL_Sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2B7B52-1A59-42A6-AB97-9CC41816E752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EA81BA-FB4F-445C-B55E-18BEE128B2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="219">
   <si>
     <t>CompanyAddress1</t>
   </si>
@@ -669,9 +669,6 @@
   </si>
   <si>
     <t>CurrencySymbol</t>
-  </si>
-  <si>
-    <t>Kolomlabels</t>
   </si>
   <si>
     <t>(leeg)</t>
@@ -718,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -726,6 +723,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1667,8 +1667,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AEFC2684-CD28-4263-B16F-9024D7451CBA}" name="Draaitabel1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AEFC2684-CD28-4263-B16F-9024D7451CBA}" name="Draaitabel1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="215">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1699,6 +1699,39 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1735,30 +1768,6 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="2">
         <item x="0"/>
@@ -1768,15 +1777,6 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1921,31 +1921,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="3">
+    <field x="56"/>
     <field x="132"/>
     <field x="144"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
     <i r="1">
       <x/>
     </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="88"/>
-  </colFields>
-  <colItems count="2">
-    <i>
+    <i r="2">
       <x/>
     </i>
     <i t="grand">
       <x/>
     </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
   </colItems>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2483,48 +2479,42 @@
   <dimension ref="A3:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
-        <v>215</v>
+      <c r="A3" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="J3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" t="s">
-        <v>217</v>
+      <c r="A4" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>216</v>
+      <c r="A5" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>216</v>
+      <c r="A6" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/TR_SalesOrderConfirmationExcel.xlsx
+++ b/TR_SalesOrderConfirmationExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimoRovers\Documents\AL\AL_Sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EA81BA-FB4F-445C-B55E-18BEE128B2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC9FA95-AF9A-461B-A09A-64B21CD5CB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1155,7 +1155,9 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="ExtDocNo_SalesHeader" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="ExtDocNo_SalesHeader_Lbl" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -1571,7 +1573,7 @@
     <m/>
     <m/>
     <m/>
-    <m/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -1667,7 +1669,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AEFC2684-CD28-4263-B16F-9024D7451CBA}" name="Draaitabel1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AEFC2684-CD28-4263-B16F-9024D7451CBA}" name="Draaitabel1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="215">
     <pivotField showAll="0"/>
@@ -1691,6 +1693,89 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1739,6 +1824,53 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1768,6 +1900,16 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="2">
         <item x="0"/>
@@ -1785,144 +1927,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="3">
-    <field x="56"/>
+    <field x="124"/>
     <field x="132"/>
     <field x="144"/>
   </rowFields>

--- a/TR_SalesOrderConfirmationExcel.xlsx
+++ b/TR_SalesOrderConfirmationExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimoRovers\Documents\AL\AL_Sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC9FA95-AF9A-461B-A09A-64B21CD5CB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67922B68-6A70-42FB-BD81-9C07DCBF9E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="220">
   <si>
     <t>CompanyAddress1</t>
   </si>
@@ -680,19 +680,29 @@
     <t>Rijlabels</t>
   </si>
   <si>
-    <t>Lay-out van Timo mooi hè</t>
+    <t>Som van TotalNetAmount</t>
+  </si>
+  <si>
+    <t>Sales Order Confirmation.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -712,10 +722,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -724,12 +735,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Titel" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1669,8 +1680,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AEFC2684-CD28-4263-B16F-9024D7451CBA}" name="Draaitabel1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AEFC2684-CD28-4263-B16F-9024D7451CBA}" name="Draaitabel1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Waarden" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="215">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1811,6 +1822,19 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="2">
         <item x="0"/>
@@ -1824,6 +1848,10 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="2">
         <item x="0"/>
@@ -1841,23 +1869,6 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1907,7 +1918,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -1928,19 +1939,15 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="3">
-    <field x="124"/>
+  <rowFields count="2">
     <field x="132"/>
     <field x="144"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="3">
     <i>
       <x/>
     </i>
     <i r="1">
-      <x/>
-    </i>
-    <i r="2">
       <x/>
     </i>
     <i t="grand">
@@ -1950,6 +1957,9 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <dataFields count="1">
+    <dataField name="Som van TotalNetAmount" fld="200" baseField="132" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2483,46 +2493,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8DC1F4-7C55-4628-94FD-0D7CD4AE90B8}">
-  <dimension ref="A3:J7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="J3" t="s">
+      <c r="B3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>215</v>
       </c>
+      <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>216</v>
       </c>
+      <c r="B6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
